--- a/sup_resis_strategy.xlsx
+++ b/sup_resis_strategy.xlsx
@@ -7918,13 +7918,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P2" s="3">
         <v>45390</v>
       </c>
       <c r="Q2">
-        <v>170.6</v>
+        <v>175.5</v>
       </c>
       <c r="R2">
         <v>35</v>
@@ -7974,13 +7974,13 @@
         <v>14</v>
       </c>
       <c r="O3" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P3" s="3">
         <v>45390</v>
       </c>
       <c r="Q3">
-        <v>150.6</v>
+        <v>155.5</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -8030,13 +8030,13 @@
         <v>14</v>
       </c>
       <c r="O4" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P4" s="3">
         <v>45390</v>
       </c>
       <c r="Q4">
-        <v>125.6</v>
+        <v>130.5</v>
       </c>
       <c r="R4">
         <v>25</v>
@@ -8086,13 +8086,13 @@
         <v>14</v>
       </c>
       <c r="O5" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P5" s="3">
         <v>45390</v>
       </c>
       <c r="Q5">
-        <v>105.6</v>
+        <v>110.5</v>
       </c>
       <c r="R5">
         <v>20</v>
@@ -8142,13 +8142,13 @@
         <v>14</v>
       </c>
       <c r="O6" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P6" s="3">
         <v>45390</v>
       </c>
       <c r="Q6">
-        <v>85.6</v>
+        <v>90.5</v>
       </c>
       <c r="R6">
         <v>20</v>
@@ -8198,13 +8198,13 @@
         <v>14</v>
       </c>
       <c r="O7" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P7" s="3">
         <v>45390</v>
       </c>
       <c r="Q7">
-        <v>55.6</v>
+        <v>60.5</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -8254,13 +8254,13 @@
         <v>14</v>
       </c>
       <c r="O8" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P8" s="3">
         <v>45390</v>
       </c>
       <c r="Q8">
-        <v>15.6</v>
+        <v>20.5</v>
       </c>
       <c r="R8">
         <v>40</v>
@@ -8310,13 +8310,13 @@
         <v>14</v>
       </c>
       <c r="O9" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P9" s="3">
         <v>45387</v>
       </c>
       <c r="Q9">
-        <v>4180.5600000000004</v>
+        <v>4185.4799999999996</v>
       </c>
       <c r="R9">
         <v>15</v>
@@ -8366,13 +8366,13 @@
         <v>14</v>
       </c>
       <c r="O10" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P10" s="3">
         <v>45390</v>
       </c>
       <c r="Q10">
-        <v>225.56</v>
+        <v>230.48</v>
       </c>
       <c r="R10">
         <v>3955</v>
@@ -8422,13 +8422,13 @@
         <v>14</v>
       </c>
       <c r="O11" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P11" s="3">
         <v>45390</v>
       </c>
       <c r="Q11">
-        <v>210.56</v>
+        <v>215.48</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -8478,13 +8478,13 @@
         <v>14</v>
       </c>
       <c r="O12" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P12" s="3">
         <v>45390</v>
       </c>
       <c r="Q12">
-        <v>175.56</v>
+        <v>180.48</v>
       </c>
       <c r="R12">
         <v>30</v>
@@ -8534,13 +8534,13 @@
         <v>14</v>
       </c>
       <c r="O13" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P13" s="3">
         <v>45390</v>
       </c>
       <c r="Q13">
-        <v>120.56</v>
+        <v>125.48</v>
       </c>
       <c r="R13">
         <v>55</v>
@@ -8590,13 +8590,13 @@
         <v>14</v>
       </c>
       <c r="O14" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P14" s="3">
         <v>45390</v>
       </c>
       <c r="Q14">
-        <v>45.56</v>
+        <v>50.48</v>
       </c>
       <c r="R14">
         <v>75</v>
@@ -8607,19 +8607,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45390.510416666664</v>
+        <v>45390.541666666664</v>
       </c>
       <c r="B15">
-        <v>48562.9</v>
+        <v>48650.2</v>
       </c>
       <c r="C15">
-        <v>48632.800000000003</v>
+        <v>48691.1</v>
       </c>
       <c r="D15">
-        <v>48561.7</v>
+        <v>48642.7</v>
       </c>
       <c r="E15">
-        <v>48627.199999999997</v>
+        <v>48673.25</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -8628,34 +8628,34 @@
         <v>1</v>
       </c>
       <c r="H15">
+        <v>48666.38</v>
+      </c>
+      <c r="I15">
         <v>48599.16</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>48543.1</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>48484.24</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48445</v>
-      </c>
-      <c r="L15">
-        <v>48411.360000000001</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="O15" s="1">
-        <v>45390.534930555557</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P15" s="3">
         <v>45390</v>
       </c>
       <c r="Q15">
-        <v>35.299999999999997</v>
+        <v>5.48</v>
       </c>
       <c r="R15">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
         <v>14</v>
@@ -8761,13 +8761,13 @@
         <v>15</v>
       </c>
       <c r="O51" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P51" s="3">
         <v>45390</v>
       </c>
       <c r="Q51">
-        <v>160.6</v>
+        <v>165.5</v>
       </c>
       <c r="R51">
         <v>40</v>
@@ -8817,13 +8817,13 @@
         <v>15</v>
       </c>
       <c r="O52" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P52" s="3">
         <v>45390</v>
       </c>
       <c r="Q52">
-        <v>120.6</v>
+        <v>125.5</v>
       </c>
       <c r="R52">
         <v>40</v>
@@ -8873,13 +8873,13 @@
         <v>15</v>
       </c>
       <c r="O53" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P53" s="3">
         <v>45390</v>
       </c>
       <c r="Q53">
-        <v>100.6</v>
+        <v>105.5</v>
       </c>
       <c r="R53">
         <v>20</v>
@@ -8929,13 +8929,13 @@
         <v>15</v>
       </c>
       <c r="O54" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P54" s="3">
         <v>45390</v>
       </c>
       <c r="Q54">
-        <v>75.599999999999994</v>
+        <v>80.5</v>
       </c>
       <c r="R54">
         <v>25</v>
@@ -8985,13 +8985,13 @@
         <v>15</v>
       </c>
       <c r="O55" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P55" s="3">
         <v>45390</v>
       </c>
       <c r="Q55">
-        <v>220.56</v>
+        <v>225.48</v>
       </c>
       <c r="R55">
         <v>3955</v>
@@ -9041,13 +9041,13 @@
         <v>15</v>
       </c>
       <c r="O56" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P56" s="3">
         <v>45390</v>
       </c>
       <c r="Q56">
-        <v>200.56</v>
+        <v>205.48</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -9097,13 +9097,13 @@
         <v>15</v>
       </c>
       <c r="O57" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P57" s="3">
         <v>45390</v>
       </c>
       <c r="Q57">
-        <v>190.56</v>
+        <v>195.48</v>
       </c>
       <c r="R57">
         <v>10</v>
@@ -9114,19 +9114,19 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>45390.409722222219</v>
+        <v>45390.545138888891</v>
       </c>
       <c r="B58">
-        <v>48521.05</v>
+        <v>48677.25</v>
       </c>
       <c r="C58">
-        <v>48532.05</v>
+        <v>48681.3</v>
       </c>
       <c r="D58">
-        <v>48461.5</v>
+        <v>48664.55</v>
       </c>
       <c r="E58">
-        <v>48461.5</v>
+        <v>48665.599999999999</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -9153,16 +9153,16 @@
         <v>15</v>
       </c>
       <c r="O58" s="1">
-        <v>45390.538321759261</v>
+        <v>45390.545393518521</v>
       </c>
       <c r="P58" s="3">
         <v>45390</v>
       </c>
       <c r="Q58">
-        <v>185.18</v>
+        <v>0.37</v>
       </c>
       <c r="R58">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="S58" t="s">
         <v>15</v>
@@ -9490,7 +9490,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9579,19 +9579,19 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45390.510416666664</v>
+        <v>45390.513888888891</v>
       </c>
       <c r="B2">
-        <v>22653.65</v>
+        <v>22661.55</v>
       </c>
       <c r="C2">
-        <v>22662.65</v>
+        <v>22663.15</v>
       </c>
       <c r="D2">
-        <v>22651.15</v>
+        <v>22651.45</v>
       </c>
       <c r="E2">
-        <v>22660.65</v>
+        <v>22654.85</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9615,30 +9615,30 @@
         <v>22590.75</v>
       </c>
       <c r="O2" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P2" s="3">
         <v>45390</v>
       </c>
       <c r="Q2">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45390.513888888891</v>
+        <v>45390.517361111109</v>
       </c>
       <c r="B3">
-        <v>22661.55</v>
+        <v>22654.9</v>
       </c>
       <c r="C3">
-        <v>22663.15</v>
+        <v>22662.2</v>
       </c>
       <c r="D3">
-        <v>22651.45</v>
+        <v>22652.1</v>
       </c>
       <c r="E3">
-        <v>22654.85</v>
+        <v>22660.25</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9662,13 +9662,13 @@
         <v>22590.75</v>
       </c>
       <c r="O3" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P3" s="3">
         <v>45390</v>
       </c>
       <c r="Q3">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="AC3" t="s">
         <v>0</v>
@@ -9679,19 +9679,19 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45390.517361111109</v>
+        <v>45390.520833333336</v>
       </c>
       <c r="B4">
-        <v>22654.9</v>
+        <v>22661.5</v>
       </c>
       <c r="C4">
-        <v>22662.2</v>
+        <v>22667.5</v>
       </c>
       <c r="D4">
-        <v>22652.1</v>
+        <v>22658.95</v>
       </c>
       <c r="E4">
-        <v>22660.25</v>
+        <v>22664.65</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9715,30 +9715,30 @@
         <v>22590.75</v>
       </c>
       <c r="O4" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P4" s="3">
         <v>45390</v>
       </c>
       <c r="Q4">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45390.520833333336</v>
+        <v>45390.524305555555</v>
       </c>
       <c r="B5">
-        <v>22661.5</v>
+        <v>22665.15</v>
       </c>
       <c r="C5">
-        <v>22667.5</v>
+        <v>22675.65</v>
       </c>
       <c r="D5">
-        <v>22658.95</v>
+        <v>22664.15</v>
       </c>
       <c r="E5">
-        <v>22664.65</v>
+        <v>22673.5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9762,13 +9762,13 @@
         <v>22590.75</v>
       </c>
       <c r="O5" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P5" s="3">
         <v>45390</v>
       </c>
       <c r="Q5">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="AC5">
         <v>22674.06</v>
@@ -9779,19 +9779,19 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45390.524305555555</v>
+        <v>45390.527777777781</v>
       </c>
       <c r="B6">
-        <v>22665.15</v>
+        <v>22673.5</v>
       </c>
       <c r="C6">
-        <v>22675.65</v>
+        <v>22678.3</v>
       </c>
       <c r="D6">
-        <v>22664.15</v>
+        <v>22668.9</v>
       </c>
       <c r="E6">
-        <v>22673.5</v>
+        <v>22673.200000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9815,13 +9815,13 @@
         <v>22590.75</v>
       </c>
       <c r="O6" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P6" s="3">
         <v>45390</v>
       </c>
       <c r="Q6">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="AC6">
         <v>22650.57</v>
@@ -9832,19 +9832,19 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45390.527777777781</v>
+        <v>45390.53125</v>
       </c>
       <c r="B7">
-        <v>22673.5</v>
+        <v>22673.25</v>
       </c>
       <c r="C7">
-        <v>22678.3</v>
+        <v>22676.35</v>
       </c>
       <c r="D7">
-        <v>22668.9</v>
+        <v>22668.85</v>
       </c>
       <c r="E7">
-        <v>22673.200000000001</v>
+        <v>22676</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9867,14 +9867,17 @@
       <c r="L7">
         <v>22590.75</v>
       </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
       <c r="O7" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P7" s="3">
         <v>45390</v>
       </c>
       <c r="Q7">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AC7">
         <v>22628.639999999999</v>
@@ -9885,19 +9888,19 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45390.53125</v>
+        <v>45390.534722222219</v>
       </c>
       <c r="B8">
-        <v>22673.25</v>
+        <v>22676.85</v>
       </c>
       <c r="C8">
-        <v>22676.35</v>
+        <v>22679</v>
       </c>
       <c r="D8">
-        <v>22668.85</v>
+        <v>22669.9</v>
       </c>
       <c r="E8">
-        <v>22676</v>
+        <v>22676.799999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9920,17 +9923,14 @@
       <c r="L8">
         <v>22590.75</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
       <c r="O8" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P8" s="3">
         <v>45390</v>
       </c>
       <c r="Q8">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC8">
         <v>22616.67</v>
@@ -9941,19 +9941,19 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45390.534722222219</v>
+        <v>45390.538194444445</v>
       </c>
       <c r="B9">
-        <v>22676.85</v>
+        <v>22676.15</v>
       </c>
       <c r="C9">
-        <v>22679</v>
+        <v>22684</v>
       </c>
       <c r="D9">
-        <v>22669.9</v>
+        <v>22673.5</v>
       </c>
       <c r="E9">
-        <v>22676.799999999999</v>
+        <v>22681.1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9977,13 +9977,13 @@
         <v>22590.75</v>
       </c>
       <c r="O9" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P9" s="3">
         <v>45390</v>
       </c>
       <c r="Q9">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC9">
         <v>22590.75</v>
@@ -9994,19 +9994,19 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45390.538194444445</v>
+        <v>45390.541666666664</v>
       </c>
       <c r="B10">
-        <v>22676.15</v>
+        <v>22681</v>
       </c>
       <c r="C10">
-        <v>22684</v>
+        <v>22691.1</v>
       </c>
       <c r="D10">
-        <v>22673.5</v>
+        <v>22678.85</v>
       </c>
       <c r="E10">
-        <v>22681.1</v>
+        <v>22690.55</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10030,30 +10030,30 @@
         <v>22590.75</v>
       </c>
       <c r="O10" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P10" s="3">
         <v>45390</v>
       </c>
       <c r="Q10">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45390.541666666664</v>
+        <v>45390.545138888891</v>
       </c>
       <c r="B11">
-        <v>22681</v>
+        <v>22691.1</v>
       </c>
       <c r="C11">
-        <v>22682.35</v>
+        <v>22692.5</v>
       </c>
       <c r="D11">
-        <v>22679.55</v>
+        <v>22683.05</v>
       </c>
       <c r="E11">
-        <v>22681.3</v>
+        <v>22683.85</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10077,30 +10077,30 @@
         <v>22590.75</v>
       </c>
       <c r="O11" s="1">
-        <v>45390.542083333334</v>
+        <v>45390.545486111114</v>
       </c>
       <c r="P11" s="3">
         <v>45390</v>
       </c>
       <c r="Q11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45390.510416666664</v>
+        <v>45390.513888888891</v>
       </c>
       <c r="B12">
-        <v>48562.9</v>
+        <v>48625.9</v>
       </c>
       <c r="C12">
-        <v>48632.800000000003</v>
+        <v>48626.25</v>
       </c>
       <c r="D12">
-        <v>48561.7</v>
+        <v>48597.75</v>
       </c>
       <c r="E12">
-        <v>48627.199999999997</v>
+        <v>48603.65</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10123,34 +10123,31 @@
       <c r="L12">
         <v>48445</v>
       </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
       <c r="O12" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P12" s="3">
         <v>45390</v>
       </c>
       <c r="Q12">
-        <v>45.56</v>
+        <v>45.48</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45390.513888888891</v>
+        <v>45390.517361111109</v>
       </c>
       <c r="B13">
-        <v>48625.9</v>
+        <v>48602.35</v>
       </c>
       <c r="C13">
-        <v>48626.25</v>
+        <v>48618.45</v>
       </c>
       <c r="D13">
-        <v>48597.75</v>
+        <v>48590.95</v>
       </c>
       <c r="E13">
-        <v>48603.65</v>
+        <v>48609.2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10174,30 +10171,30 @@
         <v>48445</v>
       </c>
       <c r="O13" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P13" s="3">
         <v>45390</v>
       </c>
       <c r="Q13">
-        <v>40.56</v>
+        <v>40.479999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45390.517361111109</v>
+        <v>45390.520833333336</v>
       </c>
       <c r="B14">
-        <v>48602.35</v>
+        <v>48608.9</v>
       </c>
       <c r="C14">
-        <v>48618.45</v>
+        <v>48629.45</v>
       </c>
       <c r="D14">
-        <v>48590.95</v>
+        <v>48604.6</v>
       </c>
       <c r="E14">
-        <v>48609.2</v>
+        <v>48625.8</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -10221,30 +10218,30 @@
         <v>48445</v>
       </c>
       <c r="O14" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P14" s="3">
         <v>45390</v>
       </c>
       <c r="Q14">
-        <v>35.56</v>
+        <v>35.479999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45390.520833333336</v>
+        <v>45390.524305555555</v>
       </c>
       <c r="B15">
-        <v>48608.9</v>
+        <v>48627.9</v>
       </c>
       <c r="C15">
-        <v>48629.45</v>
+        <v>48666.1</v>
       </c>
       <c r="D15">
-        <v>48604.6</v>
+        <v>48625.25</v>
       </c>
       <c r="E15">
-        <v>48625.8</v>
+        <v>48664.55</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -10268,30 +10265,30 @@
         <v>48445</v>
       </c>
       <c r="O15" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P15" s="3">
         <v>45390</v>
       </c>
       <c r="Q15">
-        <v>30.56</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45390.524305555555</v>
+        <v>45390.527777777781</v>
       </c>
       <c r="B16">
-        <v>48627.9</v>
+        <v>48665.599999999999</v>
       </c>
       <c r="C16">
-        <v>48666.1</v>
+        <v>48668.25</v>
       </c>
       <c r="D16">
-        <v>48625.25</v>
+        <v>48647.45</v>
       </c>
       <c r="E16">
-        <v>48664.55</v>
+        <v>48659.3</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -10315,30 +10312,30 @@
         <v>48445</v>
       </c>
       <c r="O16" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P16" s="3">
         <v>45390</v>
       </c>
       <c r="Q16">
-        <v>25.56</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45390.527777777781</v>
+        <v>45390.53125</v>
       </c>
       <c r="B17">
-        <v>48665.599999999999</v>
+        <v>48660.75</v>
       </c>
       <c r="C17">
-        <v>48668.25</v>
+        <v>48660.75</v>
       </c>
       <c r="D17">
-        <v>48647.45</v>
+        <v>48630.25</v>
       </c>
       <c r="E17">
-        <v>48659.3</v>
+        <v>48643.6</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -10362,30 +10359,30 @@
         <v>48445</v>
       </c>
       <c r="O17" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P17" s="3">
         <v>45390</v>
       </c>
       <c r="Q17">
-        <v>20.56</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45390.53125</v>
+        <v>45390.534722222219</v>
       </c>
       <c r="B18">
-        <v>48660.75</v>
+        <v>48643.6</v>
       </c>
       <c r="C18">
-        <v>48660.75</v>
+        <v>48665.95</v>
       </c>
       <c r="D18">
-        <v>48630.25</v>
+        <v>48631.75</v>
       </c>
       <c r="E18">
-        <v>48643.6</v>
+        <v>48659.6</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -10409,30 +10406,30 @@
         <v>48445</v>
       </c>
       <c r="O18" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P18" s="3">
         <v>45390</v>
       </c>
       <c r="Q18">
-        <v>15.56</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45390.534722222219</v>
+        <v>45390.538194444445</v>
       </c>
       <c r="B19">
-        <v>48643.6</v>
+        <v>48658</v>
       </c>
       <c r="C19">
-        <v>48665.95</v>
+        <v>48661.8</v>
       </c>
       <c r="D19">
-        <v>48631.75</v>
+        <v>48640.95</v>
       </c>
       <c r="E19">
-        <v>48659.6</v>
+        <v>48649.75</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -10456,30 +10453,30 @@
         <v>48445</v>
       </c>
       <c r="O19" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P19" s="3">
         <v>45390</v>
       </c>
       <c r="Q19">
-        <v>10.56</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45390.538194444445</v>
+        <v>45390.541666666664</v>
       </c>
       <c r="B20">
-        <v>48658</v>
+        <v>48650.2</v>
       </c>
       <c r="C20">
-        <v>48661.8</v>
+        <v>48691.1</v>
       </c>
       <c r="D20">
-        <v>48640.95</v>
+        <v>48642.7</v>
       </c>
       <c r="E20">
-        <v>48649.75</v>
+        <v>48673.25</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -10502,31 +10499,34 @@
       <c r="L20">
         <v>48445</v>
       </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
       <c r="O20" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P20" s="3">
         <v>45390</v>
       </c>
       <c r="Q20">
-        <v>5.56</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45390.541666666664</v>
+        <v>45390.545138888891</v>
       </c>
       <c r="B21">
-        <v>48650.2</v>
+        <v>48677.25</v>
       </c>
       <c r="C21">
-        <v>48652.25</v>
+        <v>48681.3</v>
       </c>
       <c r="D21">
-        <v>48642.7</v>
+        <v>48664.55</v>
       </c>
       <c r="E21">
-        <v>48643.05</v>
+        <v>48670</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -10550,13 +10550,13 @@
         <v>48445</v>
       </c>
       <c r="O21" s="1">
-        <v>45390.542048611111</v>
+        <v>45390.545474537037</v>
       </c>
       <c r="P21" s="3">
         <v>45390</v>
       </c>
       <c r="Q21">
-        <v>0.56000000000000005</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
